--- a/BackTest/2020-01-11 BackTest PCM.xlsx
+++ b/BackTest/2020-01-11 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6688,17 +6688,11 @@
         <v>-271987.4584</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>8.550000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6727,17 +6721,11 @@
         <v>-271987.4584</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6766,17 +6754,11 @@
         <v>-281070.4584</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6805,17 +6787,11 @@
         <v>-306731.4584</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>8.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6849,12 +6825,10 @@
       <c r="I195" t="n">
         <v>8.51</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6888,10 +6862,12 @@
       <c r="I196" t="n">
         <v>8.51</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6927,7 +6903,9 @@
       <c r="I197" t="n">
         <v>8.52</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,7 +6944,9 @@
       <c r="I198" t="n">
         <v>8.52</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7000,12 +6980,12 @@
         <v>-250180.4584</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,12 +7019,12 @@
         <v>-267119.4584</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7083,7 +7063,9 @@
       <c r="I201" t="n">
         <v>8.49</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,12 +7099,12 @@
         <v>-264702.4584</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,12 +7138,12 @@
         <v>-280811.4584</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,12 +7177,12 @@
         <v>-261627.4584</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7239,7 +7221,9 @@
       <c r="I205" t="n">
         <v>8.49</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,12 +7257,12 @@
         <v>-282815.4584</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,12 +7296,12 @@
         <v>-296290.0382</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,12 +7335,12 @@
         <v>-278103.0382</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>8.471</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,7 +7379,9 @@
       <c r="I209" t="n">
         <v>8.49</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,12 +7415,12 @@
         <v>-277506.0382</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,12 +7454,12 @@
         <v>-277506.0382</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,12 +7493,12 @@
         <v>-277506.0382</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,12 +7532,12 @@
         <v>-277506.0382</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,12 +7571,12 @@
         <v>-296229.0382</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7629,7 +7615,9 @@
       <c r="I215" t="n">
         <v>8.48</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,7 +7656,9 @@
       <c r="I216" t="n">
         <v>8.49</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,7 +7697,9 @@
       <c r="I217" t="n">
         <v>8.49</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,7 +7738,9 @@
       <c r="I218" t="n">
         <v>8.49</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,7 +7779,9 @@
       <c r="I219" t="n">
         <v>8.49</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,7 +7820,9 @@
       <c r="I220" t="n">
         <v>8.5</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,7 +7861,9 @@
       <c r="I221" t="n">
         <v>8.51</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,12 +7897,12 @@
         <v>-262923.0382</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,7 +7941,9 @@
       <c r="I223" t="n">
         <v>8.5</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,7 +7982,9 @@
       <c r="I224" t="n">
         <v>8.5</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8019,7 +8023,9 @@
       <c r="I225" t="n">
         <v>8.49</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,12 +8059,12 @@
         <v>-281103.0382</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,12 +8098,12 @@
         <v>-281103.0382</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,12 +8137,12 @@
         <v>-281103.0382</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8175,7 +8181,9 @@
       <c r="I229" t="n">
         <v>8.49</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,12 +8217,12 @@
         <v>-281103.0382</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,7 +8261,9 @@
       <c r="I231" t="n">
         <v>8.49</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8292,7 +8302,9 @@
       <c r="I232" t="n">
         <v>8.49</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,7 +8343,9 @@
       <c r="I233" t="n">
         <v>8.5</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,12 +8379,12 @@
         <v>-277336.0382</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8404,12 +8418,12 @@
         <v>-277336.0382</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,7 +8462,9 @@
       <c r="I236" t="n">
         <v>8.49</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,7 +8503,9 @@
       <c r="I237" t="n">
         <v>8.49</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,7 +8544,9 @@
       <c r="I238" t="n">
         <v>8.49</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,12 +8580,12 @@
         <v>-233428.0382</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>8.638999999999999</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,12 +8619,12 @@
         <v>-233428.0382</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8643,7 +8663,9 @@
       <c r="I241" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,12 +8699,12 @@
         <v>-233428.0382</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,12 +8738,12 @@
         <v>-250666.0382</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,12 +8777,12 @@
         <v>-264582.0382</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,12 +8816,12 @@
         <v>-287061.0382</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
         <v>8.51</v>
       </c>
-      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,12 +8855,12 @@
         <v>-301277.0382</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,12 +8894,12 @@
         <v>-301277.0382</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,12 +8933,12 @@
         <v>-301277.0382</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,12 +8972,12 @@
         <v>-289208.0382</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,12 +9011,12 @@
         <v>-268019.0382</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,12 +9050,12 @@
         <v>-256051.0382</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,12 +9089,12 @@
         <v>-256051.0382</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,12 +9128,12 @@
         <v>-237835.0382</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,12 +9167,12 @@
         <v>-224228.0382</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,12 +9206,12 @@
         <v>-224228.0382</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,12 +9245,12 @@
         <v>-224228.0382</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,12 +9284,12 @@
         <v>-205861.0382</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,12 +9323,12 @@
         <v>-180532.0382</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,12 +9362,12 @@
         <v>-180532.0382</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9379,12 +9401,12 @@
         <v>-162184.0382</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,12 +9440,12 @@
         <v>-147140.0382</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,12 +9479,12 @@
         <v>-147140.0382</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,12 +9518,12 @@
         <v>-127896.0382</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,12 +9557,12 @@
         <v>-127896.0382</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,12 +9596,12 @@
         <v>-145072.0382</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,12 +9635,12 @@
         <v>-99313.89727984703</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9652,12 +9674,12 @@
         <v>-111520.897279847</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>8.629</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9691,12 +9713,12 @@
         <v>-133026.897279847</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9730,12 +9752,12 @@
         <v>-153994.897279847</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,12 +9791,12 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9808,12 +9830,12 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,12 +9869,12 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,12 +9908,12 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9925,12 +9947,12 @@
         <v>-131060.897279847</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,12 +9986,12 @@
         <v>-115537.897279847</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,12 +10025,12 @@
         <v>-128149.897279847</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,12 +10064,12 @@
         <v>-128149.897279847</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,7 +10106,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,12 +10142,12 @@
         <v>-104125.897279847</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10157,12 +10181,12 @@
         <v>-124393.897279847</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10196,12 +10220,12 @@
         <v>-124393.897279847</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,12 +10259,12 @@
         <v>-102227.897279847</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10274,12 +10298,12 @@
         <v>-102227.897279847</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,12 +10337,12 @@
         <v>-85279.89727984703</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10355,7 +10379,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,7 +10418,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,7 +10457,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10466,7 +10496,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10503,7 +10535,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10540,7 +10574,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10577,7 +10613,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10614,7 +10652,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,7 +10691,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10688,7 +10730,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10725,7 +10769,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10762,7 +10808,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10799,7 +10847,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,7 +10886,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,7 +10925,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10910,7 +10964,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10947,7 +11003,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,7 +11042,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11018,12 +11078,12 @@
         <v>-335327.9043798471</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,7 +11120,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,7 +11159,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11134,7 +11198,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,7 +11237,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,7 +11276,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11245,7 +11315,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,7 +11354,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,7 +11393,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,7 +11432,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,7 +11471,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,7 +11510,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,7 +11549,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,7 +11588,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11541,7 +11627,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11578,7 +11666,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,7 +11705,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,7 +11744,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,7 +11783,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11726,7 +11822,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,7 +11861,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,7 +11900,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11837,7 +11939,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,7 +11978,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11911,7 +12017,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,7 +12056,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11985,7 +12095,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12022,7 +12134,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12059,7 +12173,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,7 +12212,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12133,7 +12251,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12170,7 +12290,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12207,7 +12329,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,7 +12368,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12281,7 +12407,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12318,7 +12446,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,7 +12485,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12392,7 +12524,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12429,7 +12563,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,7 +12602,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12503,7 +12641,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12540,7 +12680,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,7 +12719,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,7 +12758,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,7 +12797,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12688,7 +12836,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,7 +12875,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12762,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,7 +12953,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,7 +12992,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,7 +13031,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,7 +13070,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,7 +13109,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,7 +13148,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13021,7 +13187,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,7 +13226,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13095,7 +13265,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13132,7 +13304,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,7 +13343,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13206,7 +13382,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13243,7 +13421,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13280,7 +13460,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,7 +13499,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13354,7 +13538,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13391,7 +13577,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13428,7 +13616,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13465,7 +13655,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,7 +13694,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,7 +13733,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,7 +13772,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13613,7 +13811,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,7 +13850,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,7 +13889,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13724,7 +13928,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,7 +13967,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13798,7 +14006,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13835,7 +14045,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13872,7 +14084,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13909,7 +14123,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13946,7 +14162,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,7 +14201,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,7 +14240,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14057,7 +14279,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,7 +14318,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,7 +14357,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14168,7 +14396,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14205,7 +14435,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,7 +14474,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14279,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14316,7 +14552,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14353,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14390,7 +14630,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,7 +14669,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,7 +14708,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14501,7 +14747,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,7 +14786,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,7 +14825,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14612,7 +14864,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14649,7 +14903,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14686,7 +14942,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14723,7 +14981,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,7 +15020,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14797,7 +15059,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14834,7 +15098,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,7 +15137,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14908,7 +15176,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,7 +15215,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14982,7 +15254,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15019,7 +15293,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15056,7 +15332,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15093,7 +15371,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,7 +15410,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,7 +15449,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,7 +15488,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15241,7 +15527,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,7 +15566,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15315,7 +15605,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,7 +15644,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,7 +15683,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15426,7 +15722,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15463,7 +15761,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,7 +15800,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15537,7 +15839,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,7 +15878,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15611,7 +15917,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15648,7 +15956,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,7 +15995,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15722,7 +16034,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15759,7 +16073,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15796,7 +16112,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15833,7 +16151,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15870,7 +16190,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15907,7 +16229,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15944,7 +16268,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15981,7 +16307,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,7 +16346,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16055,7 +16385,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16092,7 +16424,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16129,7 +16463,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16166,7 +16502,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16203,7 +16541,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16240,7 +16580,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16277,7 +16619,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16314,7 +16658,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16351,7 +16697,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16388,7 +16736,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16425,7 +16775,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16462,7 +16814,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16499,7 +16853,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,16 +16889,20 @@
         <v>4033987.39208242</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>8.51</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L452" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
       <c r="M452" t="inlineStr"/>
     </row>
     <row r="453">
@@ -16568,11 +16928,17 @@
         <v>4184540.45858242</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16601,11 +16967,17 @@
         <v>3934146.857400594</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16634,11 +17006,17 @@
         <v>3718314.554400594</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16667,11 +17045,17 @@
         <v>3735848.554400594</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16700,11 +17084,17 @@
         <v>3718516.554400594</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16733,11 +17123,17 @@
         <v>3730224.554400594</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16766,11 +17162,17 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16799,11 +17201,17 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16832,11 +17240,17 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16865,11 +17279,17 @@
         <v>3694471.554400594</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16898,11 +17318,17 @@
         <v>3638931.940100594</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16931,11 +17357,17 @@
         <v>3588794.249400594</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16964,11 +17396,17 @@
         <v>3575907.249400594</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16997,11 +17435,17 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17030,11 +17474,17 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17063,11 +17513,17 @@
         <v>3344582.856600594</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17099,12 +17555,20 @@
         <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
+        <v>1.086774383078731</v>
+      </c>
+      <c r="M469" t="n">
+        <v>1.03827409960775</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -17360,7 +17824,7 @@
         <v>2309571.270300593</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17624,7 +18088,7 @@
         <v>2015159.317800593</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17657,7 +18121,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17690,7 +18154,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17723,7 +18187,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17756,7 +18220,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17789,7 +18253,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17822,7 +18286,7 @@
         <v>2074609.816600593</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17855,7 +18319,7 @@
         <v>2047648.816600593</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17888,7 +18352,7 @@
         <v>2065034.816600593</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17921,7 +18385,7 @@
         <v>2038938.764200593</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17954,7 +18418,7 @@
         <v>2071034.198100593</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17987,7 +18451,7 @@
         <v>2090811.198100593</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18020,7 +18484,7 @@
         <v>2069476.198100593</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18053,7 +18517,7 @@
         <v>2056640.198100593</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18086,7 +18550,7 @@
         <v>2071739.198100593</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18119,7 +18583,7 @@
         <v>2089066.198100593</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -22277,17 +22741,11 @@
         <v>-1343127.418380178</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>8.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22320,11 +22778,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22357,11 +22811,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22394,11 +22844,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22431,11 +22877,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22468,11 +22910,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22505,11 +22943,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22542,11 +22976,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22579,11 +23009,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22616,11 +23042,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22653,11 +23075,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22690,11 +23108,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22727,11 +23141,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22764,11 +23174,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22797,13 +23203,15 @@
         <v>-1392318.418380178</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>8.710000000000001</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L640" t="n">
@@ -26978,9 +27386,11 @@
         <v>-1587429.635950364</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>8.619999999999999</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -27015,9 +27425,11 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>8.630000000000001</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -27052,9 +27464,11 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -27089,9 +27503,11 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -27126,9 +27542,11 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -27163,9 +27581,11 @@
         <v>-1586937.561550364</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -27200,9 +27620,11 @@
         <v>-1387504.204350364</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>8.630000000000001</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -27237,9 +27659,11 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>8.66</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -27274,9 +27698,11 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>8.67</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -27348,9 +27774,11 @@
         <v>-1372281.204350364</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -27422,9 +27850,11 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27459,9 +27889,11 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -27496,9 +27928,11 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>8.640000000000001</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -28643,9 +29077,11 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>8.630000000000001</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -28680,9 +29116,11 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>8.630000000000001</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -28717,9 +29155,11 @@
         <v>-1391114.636850364</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>8.630000000000001</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28754,9 +29194,11 @@
         <v>-1391014.636850364</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -28791,9 +29233,11 @@
         <v>-1401576.636850364</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>8.619999999999999</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -28828,9 +29272,11 @@
         <v>-1401576.636850364</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28865,9 +29311,11 @@
         <v>-1401576.636850364</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28902,9 +29350,11 @@
         <v>-1469778.450150364</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28939,9 +29389,11 @@
         <v>-1457787.450150364</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>8.602</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -28976,9 +29428,11 @@
         <v>-1519881.491850364</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -29013,9 +29467,11 @@
         <v>-1509223.491850364</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>8.601000000000001</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -29050,9 +29506,11 @@
         <v>-1509223.491850364</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -29087,9 +29545,11 @@
         <v>-1509223.491850364</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -29124,9 +29584,11 @@
         <v>-1509223.491850364</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -29161,9 +29623,11 @@
         <v>-1509223.491850364</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>8.609999999999999</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -30608,18 +31072,16 @@
         <v>-1675005.684250364</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="inlineStr"/>
     </row>
     <row r="852">
@@ -30645,15 +31107,11 @@
         <v>-1663775.684250364</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30686,11 +31144,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30723,11 +31177,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30760,11 +31210,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30793,15 +31239,11 @@
         <v>-1633698.602250364</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30830,15 +31272,11 @@
         <v>-1621030.602250364</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30871,11 +31309,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30904,15 +31338,11 @@
         <v>-1608207.602250364</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30945,11 +31375,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30982,11 +31408,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31019,11 +31441,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31056,11 +31474,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31093,11 +31507,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31130,11 +31540,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31167,11 +31573,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31204,11 +31606,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31241,11 +31639,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31278,11 +31672,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31315,11 +31705,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31352,11 +31738,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31389,11 +31771,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31426,11 +31804,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31463,11 +31837,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31500,11 +31870,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +31903,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31574,11 +31936,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31611,11 +31969,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31648,11 +32002,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31685,11 +32035,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31722,11 +32068,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31759,11 +32101,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31796,11 +32134,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31833,11 +32167,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31870,11 +32200,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31907,11 +32233,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31944,11 +32266,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31981,11 +32299,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32018,11 +32332,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32055,11 +32365,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32092,11 +32398,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32129,11 +32431,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32166,11 +32464,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32203,11 +32497,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32240,11 +32530,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32277,11 +32563,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32314,11 +32596,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32351,11 +32629,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32388,11 +32662,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32425,11 +32695,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32462,11 +32728,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32499,11 +32761,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32536,11 +32794,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32573,11 +32827,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32610,11 +32860,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32647,11 +32893,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32684,11 +32926,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32721,11 +32959,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32758,11 +32992,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32795,11 +33025,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32832,11 +33058,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32869,11 +33091,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32906,11 +33124,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32943,11 +33157,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32980,11 +33190,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -33017,11 +33223,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -33054,11 +33256,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -33091,11 +33289,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33128,11 +33322,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33165,11 +33355,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33202,11 +33388,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33239,11 +33421,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33276,11 +33454,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33313,11 +33487,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33350,11 +33520,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33387,11 +33553,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33424,11 +33586,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33461,11 +33619,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33498,11 +33652,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33535,11 +33685,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33572,11 +33718,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33609,11 +33751,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33646,11 +33784,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33683,11 +33817,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33720,11 +33850,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33757,11 +33883,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33794,11 +33916,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33831,11 +33949,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33868,11 +33982,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33905,11 +34015,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33942,11 +34048,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +34081,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34016,11 +34114,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34053,11 +34147,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34090,11 +34180,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34127,11 +34213,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34164,11 +34246,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34201,11 +34279,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34238,11 +34312,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34275,11 +34345,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34312,11 +34378,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34349,11 +34411,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34386,11 +34444,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34423,11 +34477,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34460,11 +34510,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34497,11 +34543,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34534,11 +34576,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34571,11 +34609,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34608,11 +34642,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -34645,11 +34675,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -34682,11 +34708,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -34719,11 +34741,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -34756,11 +34774,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34793,11 +34807,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34830,11 +34840,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34867,11 +34873,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34904,11 +34906,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34941,11 +34939,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34978,11 +34972,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35015,11 +35005,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35052,11 +35038,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35089,11 +35071,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35126,11 +35104,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35163,11 +35137,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35170,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35237,11 +35203,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35274,11 +35236,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35311,11 +35269,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35348,11 +35302,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35385,11 +35335,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35422,11 +35368,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35459,11 +35401,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35496,11 +35434,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35533,11 +35467,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35570,11 +35500,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35607,11 +35533,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35644,11 +35566,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35681,11 +35599,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35718,11 +35632,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -35755,11 +35665,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -35792,11 +35698,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -35829,11 +35731,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35866,11 +35764,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35903,11 +35797,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35940,11 +35830,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35977,11 +35863,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36014,11 +35896,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36051,11 +35929,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36088,11 +35962,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36125,11 +35995,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36162,11 +36028,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36199,11 +36061,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -36236,11 +36094,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -36273,11 +36127,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36310,11 +36160,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36347,11 +36193,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36384,11 +36226,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36421,11 +36259,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36458,11 +36292,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36495,11 +36325,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36532,11 +36358,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36569,11 +36391,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36606,11 +36424,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36643,11 +36457,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36680,11 +36490,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36717,11 +36523,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36754,11 +36556,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36791,11 +36589,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36828,11 +36622,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36865,11 +36655,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36902,11 +36688,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36939,11 +36721,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36976,11 +36754,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -37013,11 +36787,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -37050,11 +36820,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -37087,11 +36853,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -37124,11 +36886,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -37161,11 +36919,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -37198,11 +36952,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -37235,11 +36985,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -37272,11 +37018,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -37309,11 +37051,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -37346,11 +37084,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -37383,11 +37117,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37420,11 +37150,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37457,11 +37183,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -37494,11 +37216,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -37531,11 +37249,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -37568,11 +37282,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -37605,11 +37315,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -37642,11 +37348,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -37679,11 +37381,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -37716,11 +37414,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37753,11 +37447,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37790,11 +37480,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37827,11 +37513,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37864,11 +37546,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37901,11 +37579,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37938,11 +37612,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37975,11 +37645,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -38012,11 +37678,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -38049,11 +37711,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -38086,11 +37744,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -38123,11 +37777,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -38160,11 +37810,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -38197,11 +37843,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -38234,11 +37876,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -38271,11 +37909,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -38308,11 +37942,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -38345,11 +37975,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -38382,11 +38008,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -38419,11 +38041,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -38456,11 +38074,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -38493,11 +38107,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -38530,11 +38140,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -38567,11 +38173,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -38604,11 +38206,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -38641,11 +38239,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -38678,11 +38272,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -38715,11 +38305,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -38752,11 +38338,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -38789,11 +38371,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -38826,11 +38404,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -38863,11 +38437,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -38900,11 +38470,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -38937,11 +38503,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -38974,11 +38536,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -39011,11 +38569,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -39048,11 +38602,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -39085,11 +38635,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -39122,11 +38668,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -39159,11 +38701,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -39196,11 +38734,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -39233,11 +38767,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -39270,11 +38800,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -39307,11 +38833,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -39344,11 +38866,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -39381,11 +38899,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -39418,11 +38932,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -39455,11 +38965,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -39492,11 +38998,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -39529,11 +39031,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -39566,11 +39064,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -39603,11 +39097,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -39640,11 +39130,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -39677,11 +39163,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -39714,11 +39196,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -39751,11 +39229,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -39788,11 +39262,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -39825,11 +39295,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -39862,11 +39328,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -39899,11 +39361,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -39936,11 +39394,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -39973,11 +39427,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -40010,11 +39460,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -40047,11 +39493,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +39526,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -40121,11 +39559,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -40158,11 +39592,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -40195,11 +39625,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -40232,11 +39658,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -40269,11 +39691,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -40306,11 +39724,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -40343,11 +39757,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -40380,11 +39790,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -40417,11 +39823,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -40454,11 +39856,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -40491,11 +39889,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -40528,11 +39922,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -40565,11 +39955,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -40602,11 +39988,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -40635,15 +40017,15 @@
         <v>-1543678.823161232</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -40672,13 +40054,17 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1123" t="n">
@@ -40712,7 +40098,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40746,10 +40134,14 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40783,10 +40175,14 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40820,10 +40216,14 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40857,10 +40257,14 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40894,10 +40298,14 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40931,10 +40339,14 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40968,10 +40380,14 @@
         <v>-1512646.823161232</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41005,10 +40421,14 @@
         <v>-1533516.823161232</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>8.949</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41042,10 +40462,14 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41079,10 +40503,14 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41116,10 +40544,14 @@
         <v>-1544777.823161232</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41153,10 +40585,14 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41190,10 +40626,14 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41227,10 +40667,14 @@
         <v>-1507020.688061232</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41264,10 +40708,14 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41301,10 +40749,14 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41338,10 +40790,14 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41375,10 +40831,14 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41412,10 +40872,14 @@
         <v>-1528483.688061232</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41449,10 +40913,14 @@
         <v>-1505694.688061232</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41486,10 +40954,14 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41523,10 +40995,14 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41563,7 +41039,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41597,10 +41075,14 @@
         <v>-1591057.924061232</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>8.840999999999999</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41634,10 +41116,14 @@
         <v>-1612950.924061232</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41671,10 +41157,14 @@
         <v>-1628712.924061232</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41708,10 +41198,14 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41745,10 +41239,14 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41782,10 +41280,14 @@
         <v>-1664887.924061232</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41819,10 +41321,14 @@
         <v>-1652811.924061232</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41856,10 +41362,14 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41893,10 +41403,14 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41930,10 +41444,14 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41967,10 +41485,14 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42004,10 +41526,14 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42041,10 +41567,14 @@
         <v>-1668944.924061232</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42078,10 +41608,14 @@
         <v>-1684328.924061232</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42115,10 +41649,14 @@
         <v>-1696368.924061232</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42152,10 +41690,14 @@
         <v>-2017784.924061232</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42189,10 +41731,14 @@
         <v>-1999406.924061232</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42226,10 +41772,14 @@
         <v>-1988632.924061232</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42263,10 +41813,14 @@
         <v>-944908.4082612317</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42303,7 +41857,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42340,7 +41896,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42377,7 +41935,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42414,7 +41974,9 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42451,7 +42013,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>8.92</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42463,6 +42027,6 @@
       <c r="M1171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>